--- a/common/StoryDialog_Chapter1.xlsx
+++ b/common/StoryDialog_Chapter1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>序号
 左起为回序号
@@ -88,58 +88,202 @@
     </r>
   </si>
   <si>
-    <t>天边一道惊雷闪过，将枕边的梦生生折了一截，我矍然惊醒，睫羽微湿，依稀是梦中泪痕。</t>
-  </si>
-  <si>
-    <t>外面不知何时下起了雨，淅淅沥沥，云浓雨凉薄，连着心都蒙上了几分沉重。</t>
-  </si>
-  <si>
-    <t>（微微蹙眉）九娘，怎又赤足站在窗前，如今刚入春，莫要着凉才是。</t>
-  </si>
-  <si>
-    <t>推门而入的绿瑶，见状急忙放下手中茶盘，将我搀上了床，转身关了窗。</t>
-  </si>
-  <si>
-    <t>（轻声惊呼）呀，这脚都冻成这般，九娘当多多爱惜自己才是。</t>
-  </si>
-  <si>
-    <t>绿瑶从柜中找出罗袜正要套上，掌心托着我的脚踝，触及的冰冷，又一次不住心疼地嗔怪道。</t>
-  </si>
-  <si>
-    <t>（轻笑）我知晓，就算爹不亲娘不爱，还有你念着，忧着，担着我，我怎敢不好？</t>
-  </si>
-  <si>
-    <t>（穿戴后，她拎着我到镜前梳妆，这才笑道）还有十二郎不是？</t>
-  </si>
-  <si>
-    <t>只是话刚说完，却因牵动了嘴角的伤口，暗暗吃痛地倒吸口凉气。</t>
-  </si>
-  <si>
-    <t>（见她微有异样，我急忙侧首，瞧见了她嘴角的淤青，担忧道）怎么弄的？</t>
-  </si>
-  <si>
-    <t>（避开探究的目光，佯装梳妆）九娘的发尾有些枯了，我去拿把剪子来。（指尖触过发丝，掩过不经意在眉间笼起的轻愁……）</t>
-  </si>
-  <si>
-    <t>（我急忙抓住她手腕，略沉吟片刻，便知晓什么缘由）可是领月例时，出了岔子？</t>
-  </si>
-  <si>
-    <t>见绿瑶沉默不答，似乎给予了答案。我生母虽是长房嫡妻，可偏又出了那档子事，弱女稚童自然不受待见。</t>
-  </si>
-  <si>
-    <t>这世上只见拜高踩低的，却不见雪中送炭，这钱嬷嬷自然会怠慢我们，也不是什么大事。</t>
-  </si>
-  <si>
-    <t>（不满）当初老太爷在时，哪时少过我们一点月钱，老太爷这才走不过半年，就……</t>
-  </si>
-  <si>
-    <t>（话说了一半，却是眼眶微红，语气哽咽，后半句却是再也说不下了）</t>
-  </si>
-  <si>
-    <t>（探手抹去绿瑶眼角的泪珠，嘴上的笑意不减，安抚道）好了，为那些个腌臜的东西掉泪多不值当。</t>
-  </si>
-  <si>
-    <t>十二郎差不多要醒了，你去侍候他罢，这月钱我亲自去讨便是。</t>
+    <t>寒风萧瑟，灌入脖颈中，下意识地缩了下脖子，唇齿却抑制不住地颤抖起来，抬头望着眼前重门深户的大宅院，顿生些许怯意。</t>
+  </si>
+  <si>
+    <t>旁白</t>
+  </si>
+  <si>
+    <t>(细心地拢了拢你的衣领，仔细叮嘱）四娘乖，你忍一忍，一会就能见到阿爷了。</t>
+  </si>
+  <si>
+    <t>沈氏</t>
+  </si>
+  <si>
+    <t>（懵懂）阿娘，阿爷为什么不和我们一块回扬州？</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>阿娘没有回答我的话，只是脸色却是微微一变，更加苍白。</t>
+  </si>
+  <si>
+    <t>前厅内众人雅雀无声，面色紧绷，可怕的气氛让我下意识地靠近身边的阿娘，却见阿娘将手指紧紧揣成了拳，抬头，眼眶微红，紧咬下唇，似乎在隐忍着极大的痛楚。</t>
+  </si>
+  <si>
+    <t>并嫡？（目光却不知飘远）你的学问是阿爷教的，家道中落之时，更是倾囊相助不曾有任何推诿，阿爷本想趁你赶考之时，将我许给陈进士。</t>
+  </si>
+  <si>
+    <t>是我甘担不孝之名，同你私奔至扬州，你连着两次春闱落地，从此弃文从商，我们从小小的面档做起，起早贪黑，操持中馈，就是怀着四娘之时也不敢有一刻贪懒。</t>
+  </si>
+  <si>
+    <t>好不容易日子有些许宽裕了，你又想着进都城，我忙着卖掉面馆为你筹集本钱。这几年来你我聚少离多，我可曾有一丝怨怼过？若不你这半年不曾有音讯，我担心寻来，竟不知你早在长安另立家业。</t>
+  </si>
+  <si>
+    <t>你我相识于微时，你穷困潦倒之时，不曾嫌弃，如今你飞黄腾达了却嫌我糟糠粗鄙了？亏你想得出并嫡的伎俩？是现在有头有脸，怕被外人嚼了舌根不成？</t>
+  </si>
+  <si>
+    <t>阿娘嘲讽地笑着，锋芒锐利的双眸却忽而失了魂般，清光隐隐，泪珠幽然滑落，顺势砸在了手背上。</t>
+  </si>
+  <si>
+    <t>听着阿娘细数过往，再望了望仍旧懵懂的我，阿爷似有所动，正欲说些什么，却听一阵珠帘撞击之声，一名容貌艳丽的女子卓约多姿地步了出来，她的身后跟着个不过三岁左右的奶娃娃。</t>
+  </si>
+  <si>
+    <t>娃娃奶声奶气地喊了声“阿爷”，阿爷赶忙抱起那粉雕玉琢女童，狠狠地亲了口。心渐渐沉落，阿爷，从不曾这么对我……</t>
+  </si>
+  <si>
+    <t>（娇笑了一声，上前便热切地握住了阿娘的手）这件事还是让我同姐姐说罢。</t>
+  </si>
+  <si>
+    <t>王氏</t>
+  </si>
+  <si>
+    <t>阿爷听到还欲说些什么，最后嘴唇蠕动了两下，闷闷地点了下头。阿娘面色铁青，不甚自在地想要挣脱开王氏的手。</t>
+  </si>
+  <si>
+    <t>（似乎假装没看见不远处，阿娘越来越难看的脸色，反而将那娃娃推到我的面前）四娘，这是你妹妹五娘，五娘，快叫阿姊？</t>
+  </si>
+  <si>
+    <t>钱万三</t>
+  </si>
+  <si>
+    <t>此刻你该怎么办？</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>不想让阿爷难办，乖巧应声。</t>
+  </si>
+  <si>
+    <t>选择一</t>
+  </si>
+  <si>
+    <t>我望了眼眼前的阿爷，不想阿爷为难，正要上前摸摸五娘，不想五娘却张口咬住了我的手腕，我微一吃痛，推了五娘一把。</t>
+  </si>
+  <si>
+    <t>五娘跌坐在地，眼眶一红，哇哇地哭了起来。</t>
+  </si>
+  <si>
+    <t>明明是我被咬，但阿爷却担心地查看五娘，心中一酸，眼泪也跟着啪嗒啪嗒地往下落。</t>
+  </si>
+  <si>
+    <t>推对方一把。</t>
+  </si>
+  <si>
+    <t>选择二</t>
+  </si>
+  <si>
+    <t>我看了眼，眼前的妹妹，一想到阿娘的眼泪，忍不住狠狠地推了她一把，转身朝阿娘的方向跑去。</t>
+  </si>
+  <si>
+    <t>身后是五娘的痛哭之声以及阿爷满含心疼的安抚声。</t>
+  </si>
+  <si>
+    <t>万籁俱寂的夜晚，阿娘将我抱在怀中，轻轻的哼唱着歌谣，哄我入眠，就在我似梦似醒间，却见大门被重重推开，一群壮汉涌了进来。</t>
+  </si>
+  <si>
+    <t>你们是什么人……唔……</t>
+  </si>
+  <si>
+    <t>朦胧间，我似乎见到阿娘被一群凶神恶煞的家伙架出了门，等我彻底清醒之时，房间早已空无一人，屋外一片漆黑，似有猛兽蛰伏其中，我该怎么做？</t>
+  </si>
+  <si>
+    <t>担心阿娘安危，立刻追出去；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择一 </t>
+  </si>
+  <si>
+    <t>王凝芙，你好大的胆子，竟敢趁着夫君出远门之时对于我动用私刑？别忘了，我们虽是并嫡，但我终究比你早入门了些许，你还得称我一声姐姐才是。</t>
+  </si>
+  <si>
+    <t>姐姐？你不知从哪个阴沟里冒出的贱货也配同我相提并论？今天，我不怕把话撂在这，你若乖乖画押，尚能完好离开这，否则，你可得横着被抬出这大门。</t>
+  </si>
+  <si>
+    <t>呸，我根本就没私通男子，凭什么让我画押。</t>
+  </si>
+  <si>
+    <t>见到阿娘在祠堂内，被人屈打，我心中一急，正要推开房门，想要阻止他们，却被一只粗糙的大手捂住了我的嘴，就连身子也被对方紧紧禁锢在怀中，动弹不得。</t>
+  </si>
+  <si>
+    <t>嘘，四娘！你现在去也是于事无补，你</t>
+  </si>
+  <si>
+    <t>方妈妈</t>
+  </si>
+  <si>
+    <t>方妈妈是明明五娘的乳娘，我不知她为何为出现在这，只是，眼睁睁地阿娘乱棍之下早被打得遍体鳞伤，嘴角沁血，而我只能站在窗口什么也做不了~</t>
+  </si>
+  <si>
+    <t>（探了探阿娘的气息，惊慌道）哎呀，沈，沈夫人，她，她没气了……</t>
+  </si>
+  <si>
+    <t>仆役</t>
+  </si>
+  <si>
+    <t>这可如何是好，原本就想着给她安个私通的罪名，将人打发了出去，现今出了人命，这可如何是好？</t>
+  </si>
+  <si>
+    <t>大伯母</t>
+  </si>
+  <si>
+    <t>（先是一惊，转念一想，遂安下心来）怕什么，就说她与外男打算私奔，被我们发现，只好畏罪自尽，让她画了押，留下这封诀别书，将尸首丢到荒山野岭去便是了……</t>
+  </si>
+  <si>
+    <t>（心疼）天可怜见，这么小的娃儿，就遇到这般遭罪的事，以后在这家该怎么过？四娘，你且千万记住，今日之事不能同第二人透露半句……</t>
+  </si>
+  <si>
+    <t>可是，阿娘她……（话还没来得及说，泪已经滚落了大半）</t>
+  </si>
+  <si>
+    <t>老奴晓得沈夫人是被冤枉的，可如今王凝芙正得势，在京都又有她们王家帮衬着，阿郎就是知晓了，怕是也不能为你做得了什么主的。</t>
+  </si>
+  <si>
+    <t>好了，时候不早了，快给你阿娘磕个头。</t>
+  </si>
+  <si>
+    <t>这是怎回事？你阿娘的羊水破了，四娘，快，快来搭把手。</t>
+  </si>
+  <si>
+    <t>外面一片漆黑，有点害怕，还是呆在房间等阿娘回来吧。</t>
+  </si>
+  <si>
+    <t>就在我昏昏欲睡之时，却见一道臃肿的身影急忙窜了进来，怀中竟还抱着一名啼哭的婴儿。</t>
+  </si>
+  <si>
+    <t>（我见到来人，略疑惑地唤了声）方妈妈？</t>
+  </si>
+  <si>
+    <t>方妈妈是五娘的乳娘，如今更深露重之时，却出现在此处，令人不免生疑。</t>
+  </si>
+  <si>
+    <t>（小心探视门口，竟婴儿小心放在我的身边）四娘，你且乖乖听妈妈说几句。</t>
+  </si>
+  <si>
+    <t>（望着我一脸懵懂的脸，似有不忍，最终这才哽咽着开口）你……你阿娘去了。</t>
+  </si>
+  <si>
+    <t>（乍听之时，一时不解）去，阿娘去哪了？</t>
+  </si>
+  <si>
+    <t>你阿娘没了，这是你阿娘临终前拼了命为你留下的至亲，你定要好生照顾，我不能再这待太久，你且记住，今夜来这里的事，你万不能同第二人透露半分！</t>
+  </si>
+  <si>
+    <t>乍闻阿娘过世，只觉得五雷轰了顶般，脑袋嗡嗡作响，好半晌没能回过神来。</t>
+  </si>
+  <si>
+    <t>我阿娘怎么会没了呢，方妈妈，你告诉我，阿娘怎么会没，我阿娘……</t>
+  </si>
+  <si>
+    <t>眼见着方妈妈要走出房门，正要追上问个清楚，却不想脚下踩空，整个人从床上跌了下来，身体的疼痛比不上痛失亲人的伤痛欲绝。</t>
+  </si>
+  <si>
+    <t>我的手仍旧无意识地望着伸展着，似乎想要抓紧什么，却徒手扑了个空，这个也里，整个宅院内，只剩下婴儿的啼哭和我的哭声交织了一夜。</t>
+  </si>
+  <si>
+    <t>第二日，整个府邸便传出了我阿娘同外男私奔，不想事迹败露，只好畏罪自尽的消息。</t>
   </si>
 </sst>
 </file>
@@ -149,10 +293,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,17 +324,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +353,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -211,53 +389,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,8 +436,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,10 +453,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,24 +467,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,7 +495,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,13 +516,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,163 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,26 +725,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,26 +749,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,6 +793,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -667,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,137 +842,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,10 +986,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1158,16 +1342,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="83.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="101.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1187,148 +1371,605 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="27" spans="1:3">
       <c r="A3" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="9" ht="27" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>1008</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>1009</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>1010</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" ht="27" spans="1:2">
-      <c r="A13" s="1">
-        <v>1011</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>1012</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" ht="27" spans="1:2">
-      <c r="A15" s="1">
-        <v>1013</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>1014</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>1015</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>1016</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>1017</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>1018</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" ht="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" ht="27" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" ht="27" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/common/StoryDialog_Chapter1.xlsx
+++ b/common/StoryDialog_Chapter1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>序号
 左起为回序号
@@ -91,24 +91,18 @@
     <t>寒风萧瑟，灌入脖颈中，下意识地缩了下脖子，唇齿却抑制不住地颤抖起来，抬头望着眼前重门深户的大宅院，顿生些许怯意。</t>
   </si>
   <si>
-    <t>旁白</t>
-  </si>
-  <si>
     <t>(细心地拢了拢你的衣领，仔细叮嘱）四娘乖，你忍一忍，一会就能见到阿爷了。</t>
   </si>
   <si>
-    <t>沈氏</t>
-  </si>
-  <si>
     <t>（懵懂）阿娘，阿爷为什么不和我们一块回扬州？</t>
   </si>
   <si>
-    <t>我</t>
-  </si>
-  <si>
     <t>阿娘没有回答我的话，只是脸色却是微微一变，更加苍白。</t>
   </si>
   <si>
+    <t>只听“吱呀”一声，原本紧闭的大门，开了条缝，穿着仆人服饰的男子探出身来……</t>
+  </si>
+  <si>
     <t>前厅内众人雅雀无声，面色紧绷，可怕的气氛让我下意识地靠近身边的阿娘，却见阿娘将手指紧紧揣成了拳，抬头，眼眶微红，紧咬下唇，似乎在隐忍着极大的痛楚。</t>
   </si>
   <si>
@@ -136,30 +130,18 @@
     <t>（娇笑了一声，上前便热切地握住了阿娘的手）这件事还是让我同姐姐说罢。</t>
   </si>
   <si>
-    <t>王氏</t>
-  </si>
-  <si>
     <t>阿爷听到还欲说些什么，最后嘴唇蠕动了两下，闷闷地点了下头。阿娘面色铁青，不甚自在地想要挣脱开王氏的手。</t>
   </si>
   <si>
     <t>（似乎假装没看见不远处，阿娘越来越难看的脸色，反而将那娃娃推到我的面前）四娘，这是你妹妹五娘，五娘，快叫阿姊？</t>
   </si>
   <si>
-    <t>钱万三</t>
-  </si>
-  <si>
-    <t>此刻你该怎么办？</t>
-  </si>
-  <si>
-    <t>选择</t>
+    <t>此刻该怎么办？</t>
   </si>
   <si>
     <t>不想让阿爷难办，乖巧应声。</t>
   </si>
   <si>
-    <t>选择一</t>
-  </si>
-  <si>
     <t>我望了眼眼前的阿爷，不想阿爷为难，正要上前摸摸五娘，不想五娘却张口咬住了我的手腕，我微一吃痛，推了五娘一把。</t>
   </si>
   <si>
@@ -172,9 +154,6 @@
     <t>推对方一把。</t>
   </si>
   <si>
-    <t>选择二</t>
-  </si>
-  <si>
     <t>我看了眼，眼前的妹妹，一想到阿娘的眼泪，忍不住狠狠地推了她一把，转身朝阿娘的方向跑去。</t>
   </si>
   <si>
@@ -193,7 +172,7 @@
     <t>担心阿娘安危，立刻追出去；</t>
   </si>
   <si>
-    <t xml:space="preserve">选择一 </t>
+    <t>我躲在窗口（推开窗户）看到灯火通明的祠堂内，捆缚的沈氏被迫跪在祖宗牌位面前。</t>
   </si>
   <si>
     <t>王凝芙，你好大的胆子，竟敢趁着夫君出远门之时对于我动用私刑？别忘了，我们虽是并嫡，但我终究比你早入门了些许，你还得称我一声姐姐才是。</t>
@@ -211,27 +190,24 @@
     <t>嘘，四娘！你现在去也是于事无补，你</t>
   </si>
   <si>
-    <t>方妈妈</t>
-  </si>
-  <si>
     <t>方妈妈是明明五娘的乳娘，我不知她为何为出现在这，只是，眼睁睁地阿娘乱棍之下早被打得遍体鳞伤，嘴角沁血，而我只能站在窗口什么也做不了~</t>
   </si>
   <si>
+    <t>我站在窗口，被乳娘捂住了嘴，只能看着房间内发生的一切，默默落泪。</t>
+  </si>
+  <si>
     <t>（探了探阿娘的气息，惊慌道）哎呀，沈，沈夫人，她，她没气了……</t>
   </si>
   <si>
-    <t>仆役</t>
-  </si>
-  <si>
     <t>这可如何是好，原本就想着给她安个私通的罪名，将人打发了出去，现今出了人命，这可如何是好？</t>
   </si>
   <si>
-    <t>大伯母</t>
-  </si>
-  <si>
     <t>（先是一惊，转念一想，遂安下心来）怕什么，就说她与外男打算私奔，被我们发现，只好畏罪自尽，让她画了押，留下这封诀别书，将尸首丢到荒山野岭去便是了……</t>
   </si>
   <si>
+    <t>密密麻麻的雪花，迫不及待地席卷了整片大地，入目皆是银装素裹，你和乳娘在荒郊上，打算葬了沈氏。</t>
+  </si>
+  <si>
     <t>（心疼）天可怜见，这么小的娃儿，就遇到这般遭罪的事，以后在这家该怎么过？四娘，你且千万记住，今日之事不能同第二人透露半句……</t>
   </si>
   <si>
@@ -247,6 +223,9 @@
     <t>这是怎回事？你阿娘的羊水破了，四娘，快，快来搭把手。</t>
   </si>
   <si>
+    <t>清晨，打扫的仆人打开大门之时，见到满身血污的我，怀中抱着一名啼哭的婴儿。</t>
+  </si>
+  <si>
     <t>外面一片漆黑，有点害怕，还是呆在房间等阿娘回来吧。</t>
   </si>
   <si>
@@ -284,6 +263,60 @@
   </si>
   <si>
     <t>第二日，整个府邸便传出了我阿娘同外男私奔，不想事迹败露，只好畏罪自尽的消息。</t>
+  </si>
+  <si>
+    <t>天边一道惊雷闪过，将枕边的梦生生折了一截，我矍然惊醒，睫羽微湿，依稀是梦中泪痕。</t>
+  </si>
+  <si>
+    <t>外面不知何时下起了雨，淅淅沥沥，云浓雨凉薄，连着心都蒙上了几分沉重。</t>
+  </si>
+  <si>
+    <t>（微微蹙眉）九娘，怎又赤足站在窗前，如今刚入春，莫要着凉才是。</t>
+  </si>
+  <si>
+    <t>推门而入的绿瑶，见状急忙放下手中茶盘，将我搀上了床，转身关了窗。</t>
+  </si>
+  <si>
+    <t>（轻声惊呼）呀，这脚都冻成这般，九娘当多多爱惜自己才是。</t>
+  </si>
+  <si>
+    <t>绿瑶从柜中找出罗袜正要套上，掌心托着我的脚踝，触及的冰冷，又一次不住心疼地嗔怪道。</t>
+  </si>
+  <si>
+    <t>（轻笑）我知晓，就算爹不亲娘不爱，还有你念着，忧着，担着我，我怎敢不好？</t>
+  </si>
+  <si>
+    <t>（穿戴后，她拎着我到镜前梳妆，这才笑道）还有十二郎不是？</t>
+  </si>
+  <si>
+    <t>只是话刚说完，却因牵动了嘴角的伤口，暗暗吃痛地倒吸口凉气。</t>
+  </si>
+  <si>
+    <t>（见她微有异样，我急忙侧首，瞧见了她嘴角的淤青，担忧道）怎么弄的？</t>
+  </si>
+  <si>
+    <t>（避开探究的目光，佯装梳妆）九娘的发尾有些枯了，我去拿把剪子来。（指尖触过发丝，掩过不经意在眉间笼起的轻愁……）</t>
+  </si>
+  <si>
+    <t>（我急忙抓住她手腕，略沉吟片刻，便知晓什么缘由）可是领月例时，出了岔子？</t>
+  </si>
+  <si>
+    <t>见绿瑶沉默不答，似乎给予了答案。我生母虽是长房嫡妻，可偏又出了那档子事，弱女稚童自然不受待见。</t>
+  </si>
+  <si>
+    <t>这世上只见拜高踩低的，却不见雪中送炭，这钱嬷嬷自然会怠慢我们，也不是什么大事。</t>
+  </si>
+  <si>
+    <t>（不满）当初老太爷在时，哪时少过我们一点月钱，老太爷这才走不过半年，就……</t>
+  </si>
+  <si>
+    <t>（话说了一半，却是眼眶微红，语气哽咽，后半句却是再也说不下了）</t>
+  </si>
+  <si>
+    <t>（探手抹去绿瑶眼角的泪珠，嘴上的笑意不减，安抚道）好了，为那些个腌臜的东西掉泪多不值当。</t>
+  </si>
+  <si>
+    <t>十二郎差不多要醒了，你去侍候他罢，这月钱我亲自去讨便是。</t>
   </si>
 </sst>
 </file>
@@ -291,9 +324,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -337,9 +370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +387,66 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -375,56 +468,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,46 +484,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,7 +528,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,7 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,175 +567,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,10 +752,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -749,17 +817,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,50 +849,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -830,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,137 +869,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -997,20 +1024,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1342,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -1378,257 +1411,213 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" ht="27" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" ht="27" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" ht="27" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" ht="27" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" ht="27" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" ht="27" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" ht="27" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" ht="27" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" ht="27" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" ht="27" spans="1:3">
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" ht="27" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" ht="27" spans="1:3">
@@ -1636,340 +1625,459 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" ht="27" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="B29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" ht="27" spans="1:3">
+      <c r="B30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" ht="27" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" ht="27" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" ht="27" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" ht="27" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" ht="27" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:3">
+      <c r="B38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" ht="27" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="B42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" ht="27" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" ht="27" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="B45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="B46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="B48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B49" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B50" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" ht="27" spans="1:3">
+      <c r="B51" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B52" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="B53" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" ht="27" spans="1:3">
+      <c r="B54" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="B55" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" ht="27" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="B56" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" ht="27" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" ht="27" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>5</v>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" ht="27" spans="1:2">
+      <c r="A72" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
